--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EEC23D-6B8F-48FC-A247-D8C7D9AC43CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B89B16-354E-411C-8C59-0404F1DF92C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33105" yWindow="2820" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="8655" yWindow="6075" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -2754,11 +2754,53 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2790,45 +2832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2853,24 +2856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2889,7 +2874,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6862,20 +6862,20 @@
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
-      <c r="AX3" s="76" t="s">
+      <c r="AX3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="77" t="s">
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="77"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
@@ -6926,20 +6926,20 @@
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
-      <c r="AX4" s="76" t="s">
+      <c r="AX4" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="77" t="s">
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
@@ -7727,132 +7727,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -8564,132 +8564,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -9296,852 +9296,845 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="87" t="str">
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87" t="str">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="93" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AX2" s="99"/>
-      <c r="AY2" s="99"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="99"/>
-      <c r="BB2" s="99"/>
-      <c r="BC2" s="100"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="99"/>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="100"/>
-      <c r="BD3" s="100"/>
-      <c r="BE3" s="100"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="100"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="95" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="88" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="88" t="s">
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="90"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="87"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="78">
+      <c r="A5" s="92">
         <v>43933</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="98" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="91" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="91" t="s">
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="93"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="83"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="91"/>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="93"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="83"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="92"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="93"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="83"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="93"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="83"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="93"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="83"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="93"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="83"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="91"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="93"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="83"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="93"/>
-      <c r="AO12" s="91"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="92"/>
-      <c r="AV12" s="93"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="83"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="91"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="93"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="83"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="91"/>
-      <c r="AP14" s="92"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="92"/>
-      <c r="AU14" s="92"/>
-      <c r="AV14" s="93"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="83"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="93"/>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="92"/>
-      <c r="AQ15" s="92"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="92"/>
-      <c r="AT15" s="92"/>
-      <c r="AU15" s="92"/>
-      <c r="AV15" s="93"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="83"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="91"/>
-      <c r="AP16" s="92"/>
-      <c r="AQ16" s="92"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="92"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="93"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -10158,28 +10151,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10191,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
   <dimension ref="A1:AV114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X118" sqref="X118"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH108" sqref="AH108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10201,132 +10201,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="24"/>
@@ -15981,13 +15981,13 @@
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="U16" s="121">
+      <c r="U16" s="76">
         <v>43953</v>
       </c>
       <c r="V16" t="s">
         <v>8</v>
       </c>
-      <c r="W16" s="121">
+      <c r="W16" s="76">
         <v>43953</v>
       </c>
       <c r="X16" t="s">
@@ -16235,13 +16235,13 @@
       <c r="X21">
         <v>1</v>
       </c>
-      <c r="Y21" s="121">
+      <c r="Y21" s="76">
         <v>43953</v>
       </c>
       <c r="Z21" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="121">
+      <c r="AA21" s="76">
         <v>43953</v>
       </c>
       <c r="AB21" t="s">
@@ -16265,132 +16265,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
@@ -16398,112 +16398,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="102" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="105"/>
     </row>
     <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="102" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="103"/>
-      <c r="AO6" s="103"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="103"/>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="103"/>
-      <c r="AV6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="105"/>
     </row>
     <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
@@ -16512,490 +16512,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="105" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="105"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="101" t="s">
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="101"/>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="101"/>
-      <c r="AU9" s="101"/>
-      <c r="AV9" s="101"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="102"/>
+      <c r="AU9" s="102"/>
+      <c r="AV9" s="102"/>
     </row>
     <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="102" t="s">
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="104"/>
+      <c r="AF10" s="104"/>
+      <c r="AG10" s="104"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="104"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="104"/>
+      <c r="AV10" s="105"/>
     </row>
     <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="102" t="s">
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="103"/>
-      <c r="AV11" s="104"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="104"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="104"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="104"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="104"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="104"/>
+      <c r="AR11" s="104"/>
+      <c r="AS11" s="104"/>
+      <c r="AT11" s="104"/>
+      <c r="AU11" s="104"/>
+      <c r="AV11" s="105"/>
     </row>
     <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="102" t="s">
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="103"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="103"/>
-      <c r="AO12" s="103"/>
-      <c r="AP12" s="103"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="103"/>
-      <c r="AS12" s="103"/>
-      <c r="AT12" s="103"/>
-      <c r="AU12" s="103"/>
-      <c r="AV12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="104"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="104"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="104"/>
+      <c r="AR12" s="104"/>
+      <c r="AS12" s="104"/>
+      <c r="AT12" s="104"/>
+      <c r="AU12" s="104"/>
+      <c r="AV12" s="105"/>
     </row>
     <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="102" t="s">
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="103"/>
-      <c r="AV13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="104"/>
+      <c r="AV13" s="105"/>
     </row>
     <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="102" t="s">
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="103"/>
-      <c r="AO14" s="103"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="103"/>
-      <c r="AU14" s="103"/>
-      <c r="AV14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
+      <c r="AU14" s="104"/>
+      <c r="AV14" s="105"/>
     </row>
     <row r="15" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="101"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="103"/>
-      <c r="AU15" s="103"/>
-      <c r="AV15" s="104"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="104"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="104"/>
+      <c r="AU15" s="104"/>
+      <c r="AV15" s="105"/>
     </row>
     <row r="16" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="103"/>
-      <c r="AV16" s="104"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="104"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="104"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="104"/>
+      <c r="AV16" s="105"/>
     </row>
     <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="104"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="105"/>
     </row>
     <row r="18" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
@@ -17004,217 +17004,251 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="102" t="s">
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="103"/>
-      <c r="AO20" s="103"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="103"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="103"/>
-      <c r="AU20" s="103"/>
-      <c r="AV20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="104"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="104"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="104"/>
+      <c r="AV20" s="105"/>
     </row>
     <row r="21" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="102" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="104"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="105"/>
     </row>
     <row r="22" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="102"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="103"/>
-      <c r="AU22" s="103"/>
-      <c r="AV22" s="104"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="103"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="104"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="104"/>
+      <c r="AV22" s="105"/>
     </row>
     <row r="23" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="102"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="103"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103"/>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="103"/>
-      <c r="AU23" s="103"/>
-      <c r="AV23" s="104"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="104"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="104"/>
+      <c r="AL23" s="104"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="104"/>
+      <c r="AP23" s="104"/>
+      <c r="AQ23" s="104"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="104"/>
+      <c r="AV23" s="105"/>
     </row>
     <row r="24" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -17231,40 +17265,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17284,132 +17284,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="56" t="s">
@@ -17417,490 +17417,535 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="105" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="106" t="s">
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="106" t="s">
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="106" t="s">
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="106" t="s">
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="107"/>
-      <c r="AG5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="109"/>
       <c r="AH5" s="60"/>
       <c r="AI5" s="60"/>
       <c r="AJ5" s="60"/>
       <c r="AK5" s="60"/>
       <c r="AL5" s="60"/>
       <c r="AM5" s="60"/>
-      <c r="AN5" s="106" t="s">
+      <c r="AN5" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="109"/>
     </row>
     <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="108"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="109"/>
       <c r="AH6" s="60"/>
       <c r="AI6" s="60"/>
       <c r="AJ6" s="60"/>
       <c r="AK6" s="60"/>
       <c r="AL6" s="60"/>
       <c r="AM6" s="60"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="108"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="108"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="109"/>
     </row>
     <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="106"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="108"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="109"/>
       <c r="AH7" s="60"/>
       <c r="AI7" s="60"/>
       <c r="AJ7" s="60"/>
       <c r="AK7" s="60"/>
       <c r="AL7" s="60"/>
       <c r="AM7" s="60"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="108"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="109"/>
     </row>
     <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="106"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="108"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="109"/>
       <c r="AH8" s="60"/>
       <c r="AI8" s="60"/>
       <c r="AJ8" s="60"/>
       <c r="AK8" s="60"/>
       <c r="AL8" s="60"/>
       <c r="AM8" s="60"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="108"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="109"/>
     </row>
     <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="106"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="108"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="109"/>
       <c r="AH9" s="60"/>
       <c r="AI9" s="60"/>
       <c r="AJ9" s="60"/>
       <c r="AK9" s="60"/>
       <c r="AL9" s="60"/>
       <c r="AM9" s="60"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="108"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="109"/>
     </row>
     <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="108"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="109"/>
       <c r="AH10" s="60"/>
       <c r="AI10" s="60"/>
       <c r="AJ10" s="60"/>
       <c r="AK10" s="60"/>
       <c r="AL10" s="60"/>
       <c r="AM10" s="60"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="107"/>
-      <c r="AP10" s="107"/>
-      <c r="AQ10" s="107"/>
-      <c r="AR10" s="107"/>
-      <c r="AS10" s="107"/>
-      <c r="AT10" s="107"/>
-      <c r="AU10" s="107"/>
-      <c r="AV10" s="108"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="108"/>
+      <c r="AP10" s="108"/>
+      <c r="AQ10" s="108"/>
+      <c r="AR10" s="108"/>
+      <c r="AS10" s="108"/>
+      <c r="AT10" s="108"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="109"/>
     </row>
     <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="108"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="109"/>
       <c r="AH11" s="60"/>
       <c r="AI11" s="60"/>
       <c r="AJ11" s="60"/>
       <c r="AK11" s="60"/>
       <c r="AL11" s="60"/>
       <c r="AM11" s="60"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="107"/>
-      <c r="AP11" s="107"/>
-      <c r="AQ11" s="107"/>
-      <c r="AR11" s="107"/>
-      <c r="AS11" s="107"/>
-      <c r="AT11" s="107"/>
-      <c r="AU11" s="107"/>
-      <c r="AV11" s="108"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="108"/>
+      <c r="AP11" s="108"/>
+      <c r="AQ11" s="108"/>
+      <c r="AR11" s="108"/>
+      <c r="AS11" s="108"/>
+      <c r="AT11" s="108"/>
+      <c r="AU11" s="108"/>
+      <c r="AV11" s="109"/>
     </row>
     <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="106"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="60"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="108"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="109"/>
       <c r="AH12" s="60"/>
       <c r="AI12" s="60"/>
       <c r="AJ12" s="60"/>
       <c r="AK12" s="60"/>
       <c r="AL12" s="60"/>
       <c r="AM12" s="60"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="107"/>
-      <c r="AP12" s="107"/>
-      <c r="AQ12" s="107"/>
-      <c r="AR12" s="107"/>
-      <c r="AS12" s="107"/>
-      <c r="AT12" s="107"/>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="108"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="109"/>
     </row>
     <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="60"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="108"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="109"/>
       <c r="AH13" s="60"/>
       <c r="AI13" s="60"/>
       <c r="AJ13" s="60"/>
       <c r="AK13" s="60"/>
       <c r="AL13" s="60"/>
       <c r="AM13" s="60"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="107"/>
-      <c r="AP13" s="107"/>
-      <c r="AQ13" s="107"/>
-      <c r="AR13" s="107"/>
-      <c r="AS13" s="107"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="108"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="108"/>
+      <c r="AP13" s="108"/>
+      <c r="AQ13" s="108"/>
+      <c r="AR13" s="108"/>
+      <c r="AS13" s="108"/>
+      <c r="AT13" s="108"/>
+      <c r="AU13" s="108"/>
+      <c r="AV13" s="109"/>
     </row>
     <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
@@ -17917,62 +17962,17 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17991,132 +17991,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -18399,140 +18399,140 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="109" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="111"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="102" t="s">
+      <c r="E41" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="102" t="b">
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
+      <c r="AF41" s="105"/>
     </row>
     <row r="42" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="112" t="s">
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="114"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="112" t="s">
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="114"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="50" t="s">
@@ -18547,60 +18547,60 @@
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
       <c r="N44" s="52"/>
-      <c r="O44" s="102" t="b">
+      <c r="O44" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="103"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="103"/>
-      <c r="U44" s="103"/>
-      <c r="V44" s="103"/>
-      <c r="W44" s="103"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="103"/>
-      <c r="Z44" s="103"/>
-      <c r="AA44" s="103"/>
-      <c r="AB44" s="103"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="103"/>
-      <c r="AE44" s="103"/>
-      <c r="AF44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="105"/>
     </row>
     <row r="45" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="102" t="b">
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="103"/>
-      <c r="AF45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="105"/>
     </row>
     <row r="46" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -18785,18 +18785,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="117"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -18819,16 +18819,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -18965,18 +18965,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="117"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -18999,16 +18999,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="119"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -19118,19 +19118,6 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -19142,6 +19129,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19160,132 +19160,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -19568,140 +19568,140 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="109" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="111"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="102" t="s">
+      <c r="E41" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="102" t="b">
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
+      <c r="AF41" s="105"/>
     </row>
     <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="112" t="s">
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="114"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="112" t="s">
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="114"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="57" t="s">
@@ -19716,60 +19716,60 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="59"/>
-      <c r="O44" s="102" t="b">
+      <c r="O44" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="103"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="103"/>
-      <c r="U44" s="103"/>
-      <c r="V44" s="103"/>
-      <c r="W44" s="103"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="103"/>
-      <c r="Z44" s="103"/>
-      <c r="AA44" s="103"/>
-      <c r="AB44" s="103"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="103"/>
-      <c r="AE44" s="103"/>
-      <c r="AF44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="105"/>
     </row>
     <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="102" t="b">
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="103"/>
-      <c r="AF45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="105"/>
     </row>
     <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -19954,18 +19954,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="117"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -19988,16 +19988,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -20134,18 +20134,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="117"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -20168,16 +20168,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="119"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -20287,13 +20287,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20304,13 +20304,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20329,132 +20329,132 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="79" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="86">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
@@ -20737,140 +20737,140 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="109" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="111"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E41" s="102" t="s">
+      <c r="E41" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="102" t="b">
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
+      <c r="AF41" s="105"/>
     </row>
     <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="112" t="s">
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="114"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="112" t="s">
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="114"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E44" s="57" t="s">
@@ -20885,60 +20885,60 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="59"/>
-      <c r="O44" s="102" t="b">
+      <c r="O44" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="103"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="103"/>
-      <c r="U44" s="103"/>
-      <c r="V44" s="103"/>
-      <c r="W44" s="103"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="103"/>
-      <c r="Z44" s="103"/>
-      <c r="AA44" s="103"/>
-      <c r="AB44" s="103"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="103"/>
-      <c r="AE44" s="103"/>
-      <c r="AF44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="105"/>
     </row>
     <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="102" t="b">
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="103"/>
-      <c r="AF45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="105"/>
     </row>
     <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -21123,18 +21123,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="117"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -21157,16 +21157,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -21303,18 +21303,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="117"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -21337,16 +21337,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="119"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -21456,13 +21456,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -21473,13 +21473,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yama8\GIT\Doc\00管理文書\40_詳細設計\画面系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B89B16-354E-411C-8C59-0404F1DF92C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C2648-8B5F-4F9D-9132-D26ADB00D363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="6075" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -2763,45 +2763,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2832,6 +2793,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2856,6 +2856,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2872,24 +2890,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6708,12 +6708,12 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="102" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="25" max="25" width="3.125" customWidth="1"/>
+    <col min="25" max="25" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6763,7 +6763,7 @@
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6813,7 +6813,7 @@
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6877,7 +6877,7 @@
       <c r="BF3" s="78"/>
       <c r="BG3" s="78"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6941,7 +6941,7 @@
       <c r="BF4" s="78"/>
       <c r="BG4" s="78"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6991,7 +6991,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7041,7 +7041,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" spans="1:59" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:59" ht="29.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7094,7 +7094,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" spans="1:59" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:59" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7147,7 +7147,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7197,7 +7197,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7247,7 +7247,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7303,7 +7303,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7353,7 +7353,7 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7403,7 +7403,7 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7453,7 +7453,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7503,7 +7503,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7553,7 +7553,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7603,7 +7603,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7653,7 +7653,7 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7724,137 +7724,137 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -7904,7 +7904,7 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -7956,8 +7956,8 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8009,7 +8009,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8059,7 +8059,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -8111,7 +8111,7 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
     </row>
-    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D10" s="34"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="AP10" s="28"/>
     </row>
-    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D11" s="34"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -8130,7 +8130,7 @@
       <c r="H11" s="36"/>
       <c r="AP11" s="28"/>
     </row>
-    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="31" t="s">
         <v>40</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="AO12" s="32"/>
       <c r="AP12" s="33"/>
     </row>
-    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AP13" s="28"/>
     </row>
-    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="AP14" s="28"/>
     </row>
-    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
@@ -8248,9 +8248,9 @@
       <c r="AO15" s="29"/>
       <c r="AP15" s="30"/>
     </row>
-    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8302,7 +8302,7 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
     </row>
-    <row r="19" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8352,7 +8352,7 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
     </row>
-    <row r="20" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8404,7 +8404,7 @@
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
     </row>
-    <row r="21" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -8423,7 +8423,7 @@
       <c r="H22" s="36"/>
       <c r="AP22" s="28"/>
     </row>
-    <row r="23" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D23" s="31" t="s">
         <v>40</v>
       </c>
@@ -8466,7 +8466,7 @@
       <c r="AO23" s="32"/>
       <c r="AP23" s="33"/>
     </row>
-    <row r="24" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="34"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="AP24" s="28"/>
     </row>
-    <row r="25" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
@@ -8524,15 +8524,15 @@
       <c r="AO25" s="29"/>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="34" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -8561,137 +8561,137 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -8741,8 +8741,8 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -8794,7 +8794,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8844,7 +8844,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8896,7 +8896,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D9" s="34"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="AP9" s="28"/>
     </row>
-    <row r="10" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D10" s="34"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="AP10" s="28"/>
     </row>
-    <row r="11" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D11" s="34"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="AP11" s="28"/>
     </row>
-    <row r="12" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="AP12" s="28"/>
     </row>
-    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="AP13" s="28"/>
     </row>
-    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="AP14" s="28"/>
     </row>
-    <row r="15" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D15" s="34"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="AP15" s="28"/>
     </row>
-    <row r="16" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="AP16" s="28"/>
     </row>
-    <row r="17" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D17" s="34"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="AP17" s="28"/>
     </row>
-    <row r="18" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D18" s="34"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="AP18" s="28"/>
     </row>
-    <row r="19" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
@@ -9044,7 +9044,7 @@
       <c r="H19" s="36"/>
       <c r="AP19" s="28"/>
     </row>
-    <row r="20" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D20" s="31" t="s">
         <v>39</v>
       </c>
@@ -9087,7 +9087,7 @@
       <c r="AO20" s="32"/>
       <c r="AP20" s="33"/>
     </row>
-    <row r="21" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="AP22" s="28"/>
     </row>
-    <row r="23" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
@@ -9150,7 +9150,7 @@
       <c r="AO23" s="29"/>
       <c r="AP23" s="30"/>
     </row>
-    <row r="24" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="31" t="s">
         <v>40</v>
       </c>
@@ -9193,7 +9193,7 @@
       <c r="AO24" s="32"/>
       <c r="AP24" s="33"/>
     </row>
-    <row r="25" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="AP25" s="28"/>
     </row>
-    <row r="26" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="AP26" s="28"/>
     </row>
-    <row r="27" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
@@ -9256,15 +9256,15 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="30"/>
     </row>
-    <row r="28" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="4:42" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="34" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="35" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="36" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AO2:AV2"/>
@@ -9293,218 +9293,218 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101" t="str">
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101" t="str">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="80" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="101"/>
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.45">
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.45">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="88" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="85" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="85" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="87"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.4">
-      <c r="A5" s="92">
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.45">
+      <c r="A5" s="79">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9514,54 +9514,54 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="81" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="83"/>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="94"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A6" s="78"/>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
@@ -9570,48 +9570,48 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="83"/>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="94"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A7" s="78"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
@@ -9620,48 +9620,48 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="83"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="94"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A8" s="78"/>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -9670,48 +9670,48 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="83"/>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="94"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A9" s="78"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -9720,48 +9720,48 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="83"/>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="94"/>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A10" s="78"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
@@ -9770,48 +9770,48 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="83"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="94"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A11" s="78"/>
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
@@ -9820,48 +9820,48 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="83"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="94"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A12" s="78"/>
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
@@ -9870,48 +9870,48 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="81"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="83"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="94"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A13" s="78"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
@@ -9920,48 +9920,48 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="83"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="94"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A14" s="78"/>
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
@@ -9970,48 +9970,48 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="83"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="94"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A15" s="78"/>
       <c r="B15" s="78"/>
       <c r="C15" s="78"/>
@@ -10020,48 +10020,48 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="83"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.4">
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A16" s="78"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
@@ -10070,49 +10070,100 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="83"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -10129,57 +10180,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10191,144 +10191,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
   <dimension ref="A1:AV114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH108" sqref="AH108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="17" max="17" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="49" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="49" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="24"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -10378,7 +10378,7 @@
       <c r="AU4" s="51"/>
       <c r="AV4" s="52"/>
     </row>
-    <row r="5" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="AU5" s="11"/>
       <c r="AV5" s="12"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10482,7 +10482,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="14"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -10532,7 +10532,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="14"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10582,7 +10582,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="14"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10632,7 +10632,7 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="14"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -10684,7 +10684,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="14"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -10736,7 +10736,7 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="14"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -10786,7 +10786,7 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="14"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10838,7 +10838,7 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="14"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10890,7 +10890,7 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="14"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -10942,7 +10942,7 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="14"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -10994,7 +10994,7 @@
       <c r="AU16" s="1"/>
       <c r="AV16" s="14"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11046,7 +11046,7 @@
       <c r="AU17" s="1"/>
       <c r="AV17" s="14"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -11098,7 +11098,7 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="14"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -11148,7 +11148,7 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="14"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11198,7 +11198,7 @@
       <c r="AU20" s="1"/>
       <c r="AV20" s="14"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -11248,7 +11248,7 @@
       <c r="AU21" s="1"/>
       <c r="AV21" s="14"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -11298,7 +11298,7 @@
       <c r="AU22" s="1"/>
       <c r="AV22" s="14"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -11348,7 +11348,7 @@
       <c r="AU23" s="1"/>
       <c r="AV23" s="14"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -11398,7 +11398,7 @@
       <c r="AU24" s="1"/>
       <c r="AV24" s="14"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -11448,7 +11448,7 @@
       <c r="AU25" s="1"/>
       <c r="AV25" s="14"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -11498,7 +11498,7 @@
       <c r="AU26" s="1"/>
       <c r="AV26" s="14"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -11548,7 +11548,7 @@
       <c r="AU27" s="1"/>
       <c r="AV27" s="14"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -11598,7 +11598,7 @@
       <c r="AU28" s="1"/>
       <c r="AV28" s="14"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -11648,7 +11648,7 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="14"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -11698,7 +11698,7 @@
       <c r="AU30" s="1"/>
       <c r="AV30" s="14"/>
     </row>
-    <row r="31" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -11748,7 +11748,7 @@
       <c r="AU31" s="1"/>
       <c r="AV31" s="14"/>
     </row>
-    <row r="32" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11798,7 +11798,7 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="14"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11848,7 +11848,7 @@
       <c r="AU33" s="1"/>
       <c r="AV33" s="14"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11898,7 +11898,7 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="14"/>
     </row>
-    <row r="35" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="13"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11948,7 +11948,7 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="14"/>
     </row>
-    <row r="36" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11998,7 +11998,7 @@
       <c r="AU36" s="1"/>
       <c r="AV36" s="14"/>
     </row>
-    <row r="37" spans="1:48" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:48" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12048,7 +12048,7 @@
       <c r="AU37" s="16"/>
       <c r="AV37" s="17"/>
     </row>
-    <row r="38" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:48" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20" t="s">
         <v>56</v>
       </c>
@@ -12102,7 +12102,7 @@
       <c r="AU38" s="11"/>
       <c r="AV38" s="12"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A39" s="13"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -12152,7 +12152,7 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="14"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A40" s="13"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -12204,7 +12204,7 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="14"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A41" s="13"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -12258,7 +12258,7 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="14"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -12308,7 +12308,7 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="14"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A43" s="13"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -12360,7 +12360,7 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="14"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A44" s="13"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -12414,7 +12414,7 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="14"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A45" s="13"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -12466,7 +12466,7 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="14"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -12518,7 +12518,7 @@
       <c r="AU46" s="1"/>
       <c r="AV46" s="14"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -12572,7 +12572,7 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="14"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -12624,7 +12624,7 @@
       <c r="AU48" s="1"/>
       <c r="AV48" s="14"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -12676,7 +12676,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="14"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -12730,7 +12730,7 @@
       <c r="AU50" s="1"/>
       <c r="AV50" s="14"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A51" s="13"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -12782,7 +12782,7 @@
       <c r="AU51" s="1"/>
       <c r="AV51" s="14"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A52" s="13"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -12834,7 +12834,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="14"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -12888,7 +12888,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="14"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -12940,7 +12940,7 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="14"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -12992,7 +12992,7 @@
       <c r="AU55" s="1"/>
       <c r="AV55" s="14"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -13044,7 +13044,7 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="14"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -13096,7 +13096,7 @@
       <c r="AU57" s="1"/>
       <c r="AV57" s="14"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -13148,7 +13148,7 @@
       <c r="AU58" s="1"/>
       <c r="AV58" s="14"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A59" s="13"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -13200,7 +13200,7 @@
       <c r="AU59" s="1"/>
       <c r="AV59" s="14"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -13252,7 +13252,7 @@
       <c r="AU60" s="1"/>
       <c r="AV60" s="14"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -13304,7 +13304,7 @@
       <c r="AU61" s="1"/>
       <c r="AV61" s="14"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -13356,7 +13356,7 @@
       <c r="AU62" s="1"/>
       <c r="AV62" s="14"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A63" s="13"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -13406,7 +13406,7 @@
       <c r="AU63" s="1"/>
       <c r="AV63" s="14"/>
     </row>
-    <row r="64" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="13"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -13458,7 +13458,7 @@
       <c r="AU64" s="1"/>
       <c r="AV64" s="14"/>
     </row>
-    <row r="65" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -13510,7 +13510,7 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="14"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A66" s="13"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -13562,7 +13562,7 @@
       <c r="AU66" s="1"/>
       <c r="AV66" s="14"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A67" s="13"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -13614,7 +13614,7 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="14"/>
     </row>
-    <row r="68" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="13"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -13666,7 +13666,7 @@
       <c r="AU68" s="1"/>
       <c r="AV68" s="14"/>
     </row>
-    <row r="69" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -13716,7 +13716,7 @@
       <c r="AU69" s="1"/>
       <c r="AV69" s="14"/>
     </row>
-    <row r="70" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="13"/>
       <c r="B70" s="1" t="s">
         <v>78</v>
@@ -13770,7 +13770,7 @@
       <c r="AU70" s="1"/>
       <c r="AV70" s="14"/>
     </row>
-    <row r="71" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="13"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -13822,7 +13822,7 @@
       <c r="AU71" s="1"/>
       <c r="AV71" s="14"/>
     </row>
-    <row r="72" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="13"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -13874,7 +13874,7 @@
       <c r="AU72" s="1"/>
       <c r="AV72" s="14"/>
     </row>
-    <row r="73" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="13"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -13924,7 +13924,7 @@
       <c r="AU73" s="1"/>
       <c r="AV73" s="14"/>
     </row>
-    <row r="74" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="13"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -13974,7 +13974,7 @@
       <c r="AU74" s="1"/>
       <c r="AV74" s="14"/>
     </row>
-    <row r="75" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="13"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -14024,7 +14024,7 @@
       <c r="AU75" s="1"/>
       <c r="AV75" s="14"/>
     </row>
-    <row r="76" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="13"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -14074,7 +14074,7 @@
       <c r="AU76" s="1"/>
       <c r="AV76" s="14"/>
     </row>
-    <row r="77" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -14124,7 +14124,7 @@
       <c r="AU77" s="16"/>
       <c r="AV77" s="17"/>
     </row>
-    <row r="78" spans="1:48" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:48" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -14174,7 +14174,7 @@
       <c r="AU78" s="18"/>
       <c r="AV78" s="19"/>
     </row>
-    <row r="79" spans="1:48" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:48" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="20" t="s">
         <v>11</v>
       </c>
@@ -14226,7 +14226,7 @@
       <c r="AU79" s="1"/>
       <c r="AV79" s="1"/>
     </row>
-    <row r="80" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -14276,7 +14276,7 @@
       <c r="AU80" s="1"/>
       <c r="AV80" s="1"/>
     </row>
-    <row r="81" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>73</v>
@@ -14328,7 +14328,7 @@
       <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
     </row>
-    <row r="82" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>74</v>
@@ -14380,7 +14380,7 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
     </row>
-    <row r="83" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -14430,7 +14430,7 @@
       <c r="AU83" s="1"/>
       <c r="AV83" s="1"/>
     </row>
-    <row r="84" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -14482,7 +14482,7 @@
       <c r="AU84" s="1"/>
       <c r="AV84" s="1"/>
     </row>
-    <row r="85" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -14542,7 +14542,7 @@
       <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
     </row>
-    <row r="86" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -14610,7 +14610,7 @@
       <c r="AU86" s="1"/>
       <c r="AV86" s="1"/>
     </row>
-    <row r="87" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -14676,7 +14676,7 @@
       <c r="AU87" s="1"/>
       <c r="AV87" s="1"/>
     </row>
-    <row r="88" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -14738,7 +14738,7 @@
       <c r="AU88" s="1"/>
       <c r="AV88" s="1"/>
     </row>
-    <row r="89" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -14800,7 +14800,7 @@
       <c r="AU89" s="1"/>
       <c r="AV89" s="1"/>
     </row>
-    <row r="90" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -14862,7 +14862,7 @@
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
     </row>
-    <row r="91" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -14912,7 +14912,7 @@
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
     </row>
-    <row r="92" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>75</v>
@@ -14964,7 +14964,7 @@
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
     </row>
-    <row r="93" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>76</v>
@@ -15016,7 +15016,7 @@
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A94" s="49"/>
       <c r="B94" s="49" t="s">
         <v>77</v>
@@ -15068,7 +15068,7 @@
       <c r="AU94" s="49"/>
       <c r="AV94" s="49"/>
     </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>361</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>252</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:39" x14ac:dyDescent="0.45">
       <c r="C100" t="s">
         <v>338</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:39" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
         <v>240</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:39" x14ac:dyDescent="0.45">
       <c r="C102" t="s">
         <v>328</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:39" x14ac:dyDescent="0.45">
       <c r="C103" t="s">
         <v>245</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:39" x14ac:dyDescent="0.45">
       <c r="C104" t="s">
         <v>248</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="105" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:39" x14ac:dyDescent="0.45">
       <c r="C105" t="s">
         <v>249</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>326</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>326</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>326</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="109" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:39" x14ac:dyDescent="0.45">
       <c r="R109" t="s">
         <v>306</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="110" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:39" x14ac:dyDescent="0.45">
       <c r="R110" t="s">
         <v>329</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:39" x14ac:dyDescent="0.45">
       <c r="R111" t="s">
         <v>264</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:39" x14ac:dyDescent="0.45">
       <c r="R112" t="s">
         <v>248</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="113" spans="17:23" x14ac:dyDescent="0.4">
+    <row r="113" spans="17:23" x14ac:dyDescent="0.45">
       <c r="Q113" t="s">
         <v>326</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="17:23" x14ac:dyDescent="0.4">
+    <row r="114" spans="17:23" x14ac:dyDescent="0.45">
       <c r="Q114" t="s">
         <v>326</v>
       </c>
@@ -15367,23 +15367,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="36" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="47" t="s">
         <v>101</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -15535,7 +15535,7 @@
       <c r="AJ5" s="45"/>
       <c r="AK5" s="45"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -15648,12 +15648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="42" t="s">
         <v>136</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="45" t="s">
         <v>143</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="44" t="s">
         <v>151</v>
       </c>
@@ -15767,12 +15767,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="47" t="s">
         <v>259</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="47" t="s">
         <v>271</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -15994,12 +15994,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="36" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="47" t="s">
         <v>289</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A20" s="47" t="s">
         <v>307</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -16262,142 +16262,142 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="103" t="s">
         <v>22</v>
       </c>
@@ -16451,7 +16451,7 @@
       <c r="AU5" s="104"/>
       <c r="AV5" s="105"/>
     </row>
-    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
@@ -16505,13 +16505,13 @@
       <c r="AU6" s="104"/>
       <c r="AV6" s="105"/>
     </row>
-    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="102" t="s">
         <v>17</v>
       </c>
@@ -16567,7 +16567,7 @@
       <c r="AU9" s="102"/>
       <c r="AV9" s="102"/>
     </row>
-    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="102" t="s">
         <v>30</v>
       </c>
@@ -16623,7 +16623,7 @@
       <c r="AU10" s="104"/>
       <c r="AV10" s="105"/>
     </row>
-    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="102" t="s">
         <v>33</v>
       </c>
@@ -16679,7 +16679,7 @@
       <c r="AU11" s="104"/>
       <c r="AV11" s="105"/>
     </row>
-    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="102" t="s">
         <v>44</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="AU12" s="104"/>
       <c r="AV12" s="105"/>
     </row>
-    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="102" t="s">
         <v>47</v>
       </c>
@@ -16791,7 +16791,7 @@
       <c r="AU13" s="104"/>
       <c r="AV13" s="105"/>
     </row>
-    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="102" t="s">
         <v>48</v>
       </c>
@@ -16847,7 +16847,7 @@
       <c r="AU14" s="104"/>
       <c r="AV14" s="105"/>
     </row>
-    <row r="15" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="102"/>
       <c r="B15" s="102"/>
       <c r="C15" s="102"/>
@@ -16897,7 +16897,7 @@
       <c r="AU15" s="104"/>
       <c r="AV15" s="105"/>
     </row>
-    <row r="16" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="102"/>
       <c r="B16" s="102"/>
       <c r="C16" s="102"/>
@@ -16947,7 +16947,7 @@
       <c r="AU16" s="104"/>
       <c r="AV16" s="105"/>
     </row>
-    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="102"/>
       <c r="B17" s="102"/>
       <c r="C17" s="102"/>
@@ -16997,13 +16997,13 @@
       <c r="AU17" s="104"/>
       <c r="AV17" s="105"/>
     </row>
-    <row r="18" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="103" t="s">
         <v>17</v>
       </c>
@@ -17057,7 +17057,7 @@
       <c r="AU20" s="104"/>
       <c r="AV20" s="105"/>
     </row>
-    <row r="21" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="103" t="s">
         <v>36</v>
       </c>
@@ -17111,7 +17111,7 @@
       <c r="AU21" s="104"/>
       <c r="AV21" s="105"/>
     </row>
-    <row r="22" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="103"/>
       <c r="B22" s="104"/>
       <c r="C22" s="104"/>
@@ -17161,7 +17161,7 @@
       <c r="AU22" s="104"/>
       <c r="AV22" s="105"/>
     </row>
-    <row r="23" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="103"/>
       <c r="B23" s="104"/>
       <c r="C23" s="104"/>
@@ -17211,22 +17211,32 @@
       <c r="AU23" s="104"/>
       <c r="AV23" s="105"/>
     </row>
-    <row r="24" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -17243,28 +17253,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17281,142 +17281,142 @@
       <selection activeCell="AD6" sqref="AD6:AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="107" t="s">
         <v>227</v>
       </c>
@@ -17484,7 +17484,7 @@
       <c r="AU5" s="108"/>
       <c r="AV5" s="109"/>
     </row>
-    <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
         <v>236</v>
       </c>
@@ -17536,7 +17536,7 @@
       <c r="AU6" s="108"/>
       <c r="AV6" s="109"/>
     </row>
-    <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="107"/>
       <c r="B7" s="108"/>
       <c r="C7" s="108"/>
@@ -17586,7 +17586,7 @@
       <c r="AU7" s="108"/>
       <c r="AV7" s="109"/>
     </row>
-    <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="107"/>
       <c r="B8" s="108"/>
       <c r="C8" s="108"/>
@@ -17636,7 +17636,7 @@
       <c r="AU8" s="108"/>
       <c r="AV8" s="109"/>
     </row>
-    <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="107"/>
       <c r="B9" s="108"/>
       <c r="C9" s="108"/>
@@ -17686,7 +17686,7 @@
       <c r="AU9" s="108"/>
       <c r="AV9" s="109"/>
     </row>
-    <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="107"/>
       <c r="B10" s="108"/>
       <c r="C10" s="108"/>
@@ -17736,7 +17736,7 @@
       <c r="AU10" s="108"/>
       <c r="AV10" s="109"/>
     </row>
-    <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="107"/>
       <c r="B11" s="108"/>
       <c r="C11" s="108"/>
@@ -17786,7 +17786,7 @@
       <c r="AU11" s="108"/>
       <c r="AV11" s="109"/>
     </row>
-    <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="107"/>
       <c r="B12" s="108"/>
       <c r="C12" s="108"/>
@@ -17836,7 +17836,7 @@
       <c r="AU12" s="108"/>
       <c r="AV12" s="109"/>
     </row>
-    <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="107"/>
       <c r="B13" s="108"/>
       <c r="C13" s="108"/>
@@ -17886,21 +17886,66 @@
       <c r="AU13" s="108"/>
       <c r="AV13" s="109"/>
     </row>
-    <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
@@ -17917,62 +17962,17 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="Z13:AC13"/>
     <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17988,137 +17988,137 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -18168,19 +18168,19 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C5" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E9" s="26" t="s">
         <v>26</v>
       </c>
@@ -18188,29 +18188,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E14" s="49" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AA15" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E16" s="26" t="s">
         <v>27</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E17" s="26" t="s">
         <v>28</v>
       </c>
@@ -18226,8 +18226,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D19" s="31" t="s">
         <v>40</v>
       </c>
@@ -18270,7 +18270,7 @@
       <c r="AO19" s="32"/>
       <c r="AP19" s="33"/>
     </row>
-    <row r="20" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -18287,7 +18287,7 @@
       </c>
       <c r="AP20" s="28"/>
     </row>
-    <row r="21" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
@@ -18345,94 +18345,94 @@
       <c r="AO22" s="29"/>
       <c r="AP22" s="30"/>
     </row>
-    <row r="23" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E26" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E27" s="46" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C29" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="3:42" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="4:32" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:42" s="46" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="4:32" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E33" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E34" s="49" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D36" s="49" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E38" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="119" t="s">
+    <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E40" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
-    </row>
-    <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
+    </row>
+    <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
         <v>184</v>
       </c>
@@ -18466,7 +18466,7 @@
       <c r="AE41" s="104"/>
       <c r="AF41" s="105"/>
     </row>
-    <row r="42" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E42" s="103" t="s">
         <v>185</v>
       </c>
@@ -18479,28 +18479,28 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
-    </row>
-    <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
+    </row>
+    <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
         <v>186</v>
       </c>
@@ -18513,28 +18513,28 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
-    </row>
-    <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
+    </row>
+    <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="50" t="s">
         <v>187</v>
       </c>
@@ -18568,7 +18568,7 @@
       <c r="AE44" s="104"/>
       <c r="AF44" s="105"/>
     </row>
-    <row r="45" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E45" s="103" t="s">
         <v>188</v>
       </c>
@@ -18602,21 +18602,21 @@
       <c r="AE45" s="104"/>
       <c r="AF45" s="105"/>
     </row>
-    <row r="46" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D48" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E50" s="26" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E52" s="53" t="s">
         <v>211</v>
       </c>
@@ -18650,14 +18650,14 @@
       <c r="AE52" s="64"/>
       <c r="AF52" s="65"/>
     </row>
-    <row r="53" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E54" s="49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E56" s="53" t="s">
         <v>191</v>
       </c>
@@ -18691,7 +18691,7 @@
       <c r="AE56" s="64"/>
       <c r="AF56" s="65"/>
     </row>
-    <row r="57" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E57" s="53" t="s">
         <v>194</v>
       </c>
@@ -18725,32 +18725,32 @@
       <c r="AE57" s="66"/>
       <c r="AF57" s="67"/>
     </row>
-    <row r="58" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C60" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="3:32" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D62" s="49" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="3:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E64" s="49" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="66" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F66" s="49" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F67" s="53" t="s">
         <v>191</v>
       </c>
@@ -18784,19 +18784,19 @@
       <c r="AF67" s="64"/>
       <c r="AG67" s="65"/>
     </row>
-    <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="110" t="s">
+    <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F68" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -18818,17 +18818,17 @@
       <c r="AF68" s="64"/>
       <c r="AG68" s="65"/>
     </row>
-    <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+    <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -18850,7 +18850,7 @@
       <c r="AF69" s="64"/>
       <c r="AG69" s="65"/>
     </row>
-    <row r="70" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F70" s="53" t="s">
         <v>194</v>
       </c>
@@ -18884,7 +18884,7 @@
       <c r="AF70" s="66"/>
       <c r="AG70" s="67"/>
     </row>
-    <row r="71" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F71" s="53" t="s">
         <v>195</v>
       </c>
@@ -18918,19 +18918,19 @@
       <c r="AF71" s="66"/>
       <c r="AG71" s="67"/>
     </row>
-    <row r="72" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="73" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E73" s="49" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F75" s="49" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F76" s="53" t="s">
         <v>191</v>
       </c>
@@ -18964,19 +18964,19 @@
       <c r="AF76" s="64"/>
       <c r="AG76" s="65"/>
     </row>
-    <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="110" t="s">
+    <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -18998,17 +18998,17 @@
       <c r="AF77" s="64"/>
       <c r="AG77" s="65"/>
     </row>
-    <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+    <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -19030,7 +19030,7 @@
       <c r="AF78" s="64"/>
       <c r="AG78" s="65"/>
     </row>
-    <row r="79" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F79" s="53" t="s">
         <v>194</v>
       </c>
@@ -19064,7 +19064,7 @@
       <c r="AF79" s="66"/>
       <c r="AG79" s="67"/>
     </row>
-    <row r="80" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F80" s="53" t="s">
         <v>195</v>
       </c>
@@ -19098,26 +19098,39 @@
       <c r="AF80" s="66"/>
       <c r="AG80" s="67"/>
     </row>
-    <row r="81" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="82" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D82" s="49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="84" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E84" s="49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="86" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="88" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="89" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="4:5" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="89" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -19129,19 +19142,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19157,137 +19157,137 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -19337,19 +19337,19 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C5" s="56" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E9" s="56" t="s">
         <v>26</v>
       </c>
@@ -19357,29 +19357,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E10" s="56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E14" s="56" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AA15" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E16" s="56" t="s">
         <v>27</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E17" s="56" t="s">
         <v>28</v>
       </c>
@@ -19395,8 +19395,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D19" s="70" t="s">
         <v>40</v>
       </c>
@@ -19439,7 +19439,7 @@
       <c r="AO19" s="71"/>
       <c r="AP19" s="72"/>
     </row>
-    <row r="20" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="AP20" s="28"/>
     </row>
-    <row r="21" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D22" s="73"/>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
@@ -19514,94 +19514,94 @@
       <c r="AO22" s="29"/>
       <c r="AP22" s="30"/>
     </row>
-    <row r="23" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="56" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E26" s="56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E27" s="56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C29" s="56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="56" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E33" s="56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E34" s="56" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D36" s="56" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E38" s="56" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="119" t="s">
+    <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E40" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
-    </row>
-    <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
+    </row>
+    <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
         <v>184</v>
       </c>
@@ -19635,7 +19635,7 @@
       <c r="AE41" s="104"/>
       <c r="AF41" s="105"/>
     </row>
-    <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E42" s="103" t="s">
         <v>185</v>
       </c>
@@ -19648,28 +19648,28 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
-    </row>
-    <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
+    </row>
+    <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
         <v>186</v>
       </c>
@@ -19682,28 +19682,28 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
-    </row>
-    <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
+    </row>
+    <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
         <v>187</v>
       </c>
@@ -19737,7 +19737,7 @@
       <c r="AE44" s="104"/>
       <c r="AF44" s="105"/>
     </row>
-    <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E45" s="103" t="s">
         <v>188</v>
       </c>
@@ -19771,21 +19771,21 @@
       <c r="AE45" s="104"/>
       <c r="AF45" s="105"/>
     </row>
-    <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D48" s="56" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E50" s="56" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E52" s="61" t="s">
         <v>211</v>
       </c>
@@ -19819,14 +19819,14 @@
       <c r="AE52" s="64"/>
       <c r="AF52" s="65"/>
     </row>
-    <row r="53" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E54" s="56" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E56" s="61" t="s">
         <v>191</v>
       </c>
@@ -19860,7 +19860,7 @@
       <c r="AE56" s="64"/>
       <c r="AF56" s="65"/>
     </row>
-    <row r="57" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E57" s="61" t="s">
         <v>194</v>
       </c>
@@ -19894,32 +19894,32 @@
       <c r="AE57" s="66"/>
       <c r="AF57" s="67"/>
     </row>
-    <row r="58" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C60" s="56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D62" s="56" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E64" s="56" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="66" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F66" s="56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F67" s="61" t="s">
         <v>191</v>
       </c>
@@ -19953,19 +19953,19 @@
       <c r="AF67" s="64"/>
       <c r="AG67" s="65"/>
     </row>
-    <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="110" t="s">
+    <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F68" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -19987,17 +19987,17 @@
       <c r="AF68" s="64"/>
       <c r="AG68" s="65"/>
     </row>
-    <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+    <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -20019,7 +20019,7 @@
       <c r="AF69" s="64"/>
       <c r="AG69" s="65"/>
     </row>
-    <row r="70" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F70" s="61" t="s">
         <v>194</v>
       </c>
@@ -20053,7 +20053,7 @@
       <c r="AF70" s="66"/>
       <c r="AG70" s="67"/>
     </row>
-    <row r="71" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F71" s="61" t="s">
         <v>195</v>
       </c>
@@ -20087,19 +20087,19 @@
       <c r="AF71" s="66"/>
       <c r="AG71" s="67"/>
     </row>
-    <row r="72" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="73" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E73" s="56" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F75" s="56" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F76" s="61" t="s">
         <v>191</v>
       </c>
@@ -20133,19 +20133,19 @@
       <c r="AF76" s="64"/>
       <c r="AG76" s="65"/>
     </row>
-    <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="110" t="s">
+    <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -20167,17 +20167,17 @@
       <c r="AF77" s="64"/>
       <c r="AG77" s="65"/>
     </row>
-    <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+    <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -20199,7 +20199,7 @@
       <c r="AF78" s="64"/>
       <c r="AG78" s="65"/>
     </row>
-    <row r="79" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F79" s="61" t="s">
         <v>194</v>
       </c>
@@ -20233,7 +20233,7 @@
       <c r="AF79" s="66"/>
       <c r="AG79" s="67"/>
     </row>
-    <row r="80" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F80" s="61" t="s">
         <v>195</v>
       </c>
@@ -20267,33 +20267,33 @@
       <c r="AF80" s="66"/>
       <c r="AG80" s="67"/>
     </row>
-    <row r="81" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="82" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D82" s="56" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="84" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E84" s="56" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="86" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="88" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="89" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="89" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20304,13 +20304,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20326,137 +20326,137 @@
       <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="str">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-    </row>
-    <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+    </row>
+    <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -20506,19 +20506,19 @@
       <c r="AU4" s="23"/>
       <c r="AV4" s="23"/>
     </row>
-    <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C5" s="56" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D7" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E9" s="56" t="s">
         <v>26</v>
       </c>
@@ -20526,29 +20526,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E10" s="56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D12" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E14" s="56" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="AA15" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E16" s="56" t="s">
         <v>27</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E17" s="56" t="s">
         <v>28</v>
       </c>
@@ -20564,8 +20564,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D19" s="70" t="s">
         <v>40</v>
       </c>
@@ -20608,7 +20608,7 @@
       <c r="AO19" s="71"/>
       <c r="AP19" s="72"/>
     </row>
-    <row r="20" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="AP20" s="28"/>
     </row>
-    <row r="21" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="AP21" s="28"/>
     </row>
-    <row r="22" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D22" s="73"/>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
@@ -20683,94 +20683,94 @@
       <c r="AO22" s="29"/>
       <c r="AP22" s="30"/>
     </row>
-    <row r="23" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D24" s="56" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E26" s="56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E27" s="56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C29" s="56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="56" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:42" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E33" s="56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E34" s="56" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D36" s="56" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E38" s="56" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="119" t="s">
+    <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E40" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
-    </row>
-    <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
+    </row>
+    <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
         <v>184</v>
       </c>
@@ -20804,7 +20804,7 @@
       <c r="AE41" s="104"/>
       <c r="AF41" s="105"/>
     </row>
-    <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E42" s="103" t="s">
         <v>185</v>
       </c>
@@ -20817,28 +20817,28 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
-    </row>
-    <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
+    </row>
+    <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
         <v>186</v>
       </c>
@@ -20851,28 +20851,28 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
-    </row>
-    <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
+    </row>
+    <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
         <v>187</v>
       </c>
@@ -20906,7 +20906,7 @@
       <c r="AE44" s="104"/>
       <c r="AF44" s="105"/>
     </row>
-    <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E45" s="103" t="s">
         <v>188</v>
       </c>
@@ -20940,21 +20940,21 @@
       <c r="AE45" s="104"/>
       <c r="AF45" s="105"/>
     </row>
-    <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D48" s="56" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E50" s="56" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E52" s="61" t="s">
         <v>211</v>
       </c>
@@ -20988,14 +20988,14 @@
       <c r="AE52" s="64"/>
       <c r="AF52" s="65"/>
     </row>
-    <row r="53" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E54" s="56" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E56" s="61" t="s">
         <v>191</v>
       </c>
@@ -21029,7 +21029,7 @@
       <c r="AE56" s="64"/>
       <c r="AF56" s="65"/>
     </row>
-    <row r="57" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E57" s="61" t="s">
         <v>194</v>
       </c>
@@ -21063,32 +21063,32 @@
       <c r="AE57" s="66"/>
       <c r="AF57" s="67"/>
     </row>
-    <row r="58" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C60" s="56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D62" s="56" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="3:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E64" s="56" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="66" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F66" s="56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F67" s="61" t="s">
         <v>191</v>
       </c>
@@ -21122,19 +21122,19 @@
       <c r="AF67" s="64"/>
       <c r="AG67" s="65"/>
     </row>
-    <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F68" s="110" t="s">
+    <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F68" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -21156,17 +21156,17 @@
       <c r="AF68" s="64"/>
       <c r="AG68" s="65"/>
     </row>
-    <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+    <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -21188,7 +21188,7 @@
       <c r="AF69" s="64"/>
       <c r="AG69" s="65"/>
     </row>
-    <row r="70" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F70" s="61" t="s">
         <v>194</v>
       </c>
@@ -21222,7 +21222,7 @@
       <c r="AF70" s="66"/>
       <c r="AG70" s="67"/>
     </row>
-    <row r="71" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F71" s="61" t="s">
         <v>195</v>
       </c>
@@ -21256,19 +21256,19 @@
       <c r="AF71" s="66"/>
       <c r="AG71" s="67"/>
     </row>
-    <row r="72" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="73" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E73" s="56" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F75" s="56" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F76" s="61" t="s">
         <v>191</v>
       </c>
@@ -21302,19 +21302,19 @@
       <c r="AF76" s="64"/>
       <c r="AG76" s="65"/>
     </row>
-    <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F77" s="110" t="s">
+    <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -21336,17 +21336,17 @@
       <c r="AF77" s="64"/>
       <c r="AG77" s="65"/>
     </row>
-    <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+    <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -21368,7 +21368,7 @@
       <c r="AF78" s="64"/>
       <c r="AG78" s="65"/>
     </row>
-    <row r="79" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F79" s="61" t="s">
         <v>194</v>
       </c>
@@ -21402,7 +21402,7 @@
       <c r="AF79" s="66"/>
       <c r="AG79" s="67"/>
     </row>
-    <row r="80" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F80" s="61" t="s">
         <v>195</v>
       </c>
@@ -21436,33 +21436,33 @@
       <c r="AF80" s="66"/>
       <c r="AG80" s="67"/>
     </row>
-    <row r="81" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="82" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D82" s="56" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="84" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E84" s="56" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="86" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="88" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="89" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="88" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="89" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -21473,13 +21473,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C2648-8B5F-4F9D-9132-D26ADB00D363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822EB55-878F-413E-BC11-23E9E4000B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -2763,6 +2763,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2793,45 +2832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2856,24 +2856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2890,6 +2872,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7727,132 +7727,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -8564,132 +8564,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -9296,215 +9296,215 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88" t="str">
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="101" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88" t="str">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="93" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="101"/>
-      <c r="BG3" s="101"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="96" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="89" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="89" t="s">
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="91"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="87"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A5" s="79">
+      <c r="A5" s="92">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9514,52 +9514,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="92" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="92" t="s">
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="94"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="83"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A6" s="78"/>
@@ -9570,46 +9570,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="94"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="83"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A7" s="78"/>
@@ -9620,46 +9620,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="83"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A8" s="78"/>
@@ -9670,46 +9670,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="94"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="83"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A9" s="78"/>
@@ -9720,46 +9720,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="94"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="83"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A10" s="78"/>
@@ -9770,46 +9770,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="94"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="83"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A11" s="78"/>
@@ -9820,46 +9820,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="94"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="83"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A12" s="78"/>
@@ -9870,46 +9870,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="94"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="83"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A13" s="78"/>
@@ -9920,46 +9920,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="94"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="83"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A14" s="78"/>
@@ -9970,46 +9970,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="94"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="83"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A15" s="78"/>
@@ -10020,46 +10020,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="94"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="83"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A16" s="78"/>
@@ -10070,78 +10070,71 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="94"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -10158,28 +10151,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10201,132 +10201,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="24"/>
@@ -15368,7 +15368,7 @@
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16265,132 +16265,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
@@ -17215,6 +17215,40 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -17231,40 +17265,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17284,132 +17284,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
@@ -17890,17 +17890,62 @@
     <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
@@ -17917,62 +17962,17 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17991,132 +17991,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -18399,38 +18399,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
@@ -18479,26 +18479,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
@@ -18513,26 +18513,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="50" t="s">
@@ -18785,18 +18785,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -18819,16 +18819,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -18965,18 +18965,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -18999,16 +18999,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -19118,19 +19118,6 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -19142,6 +19129,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19160,132 +19160,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -19568,38 +19568,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
@@ -19648,26 +19648,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
@@ -19682,26 +19682,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -19954,18 +19954,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -19988,16 +19988,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -20134,18 +20134,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -20168,16 +20168,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -20287,13 +20287,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20304,13 +20304,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20329,132 +20329,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="95" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86" t="s">
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="80" t="str">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="93" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="87">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="100">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80" t="str">
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80" t="str">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80" t="str">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -20737,38 +20737,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110" t="s">
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="112"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="120"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="120"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="120"/>
+      <c r="AF40" s="121"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
@@ -20817,26 +20817,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="113" t="s">
+      <c r="O42" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="115"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="117"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
@@ -20851,26 +20851,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="113" t="s">
+      <c r="O43" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="115"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -21123,18 +21123,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="116" t="s">
+      <c r="F68" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="118"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="112"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -21157,16 +21157,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="119"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
-      <c r="O69" s="121"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="115"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -21303,18 +21303,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="116" t="s">
+      <c r="F77" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="118"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -21337,16 +21337,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="119"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="121"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -21456,13 +21456,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -21473,13 +21473,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_拠点系処理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822EB55-878F-413E-BC11-23E9E4000B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD265FB8-E072-404F-B4AA-D50DAE317BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="228" yWindow="4512" windowWidth="13320" windowHeight="8916" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -2763,45 +2763,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2832,6 +2793,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2856,6 +2856,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2872,24 +2890,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7727,132 +7727,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -8564,132 +8564,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -9296,215 +9296,215 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="101" t="str">
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101" t="str">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="80" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="101"/>
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="101"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="88" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="85" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="85" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="87"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A5" s="92">
+      <c r="A5" s="79">
         <v>43933</v>
       </c>
       <c r="B5" s="78"/>
@@ -9514,52 +9514,52 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="81" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="83"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="94"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A6" s="78"/>
@@ -9570,46 +9570,46 @@
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="83"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="94"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A7" s="78"/>
@@ -9620,46 +9620,46 @@
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="83"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="94"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A8" s="78"/>
@@ -9670,46 +9670,46 @@
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="83"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="94"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A9" s="78"/>
@@ -9720,46 +9720,46 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="83"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="94"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A10" s="78"/>
@@ -9770,46 +9770,46 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="83"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="94"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A11" s="78"/>
@@ -9820,46 +9820,46 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="83"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="94"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A12" s="78"/>
@@ -9870,46 +9870,46 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="81"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="83"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="94"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A13" s="78"/>
@@ -9920,46 +9920,46 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="82"/>
-      <c r="AV13" s="83"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="94"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A14" s="78"/>
@@ -9970,46 +9970,46 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="83"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="94"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A15" s="78"/>
@@ -10020,46 +10020,46 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="83"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A16" s="78"/>
@@ -10070,49 +10070,100 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="83"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -10129,57 +10180,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10201,132 +10201,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="24"/>
@@ -16265,132 +16265,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
@@ -17215,18 +17215,28 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -17243,28 +17253,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17284,132 +17284,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
@@ -17890,17 +17890,62 @@
     <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
@@ -17917,62 +17962,17 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="Z13:AC13"/>
     <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17991,132 +17991,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -18399,38 +18399,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
@@ -18479,26 +18479,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
@@ -18513,26 +18513,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="50" t="s">
@@ -18785,18 +18785,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -18819,16 +18819,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -18965,18 +18965,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -18999,16 +18999,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -19118,6 +19118,19 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -19129,19 +19142,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19160,132 +19160,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -19568,38 +19568,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
@@ -19648,26 +19648,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
@@ -19682,26 +19682,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -19954,18 +19954,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -19988,16 +19988,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -20134,18 +20134,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -20168,16 +20168,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -20287,13 +20287,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -20304,13 +20304,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20329,132 +20329,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="82" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99" t="s">
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="93" t="str">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="80" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="100">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="87">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93" t="str">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93" t="str">
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93" t="str">
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -20737,38 +20737,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
-      <c r="AD40" s="120"/>
-      <c r="AE40" s="120"/>
-      <c r="AF40" s="121"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="112"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="103" t="s">
@@ -20817,26 +20817,26 @@
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
       <c r="N42" s="105"/>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="118"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="115"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="103" t="s">
@@ -20851,26 +20851,26 @@
       <c r="L43" s="104"/>
       <c r="M43" s="104"/>
       <c r="N43" s="105"/>
-      <c r="O43" s="116" t="s">
+      <c r="O43" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="117"/>
-      <c r="AE43" s="117"/>
-      <c r="AF43" s="118"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="115"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -21123,18 +21123,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="110" t="s">
+      <c r="F68" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="112"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="118"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -21157,16 +21157,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="115"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="121"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -21303,18 +21303,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="118"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -21337,16 +21337,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="113"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="115"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -21456,13 +21456,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -21473,13 +21473,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
